--- a/autoSave NPCs-ITEMs/QuestsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/QuestsAo-Web.xlsx
@@ -45,9 +45,6 @@
     <t>nameNpcKill</t>
   </si>
   <si>
-    <t>npcKillAmount</t>
-  </si>
-  <si>
     <t>giveExp</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Gallo Salvaje</t>
+  </si>
+  <si>
+    <t>npcKillAmountNeeded</t>
   </si>
 </sst>
 </file>
@@ -466,15 +466,16 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="119.42578125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
@@ -500,13 +501,13 @@
         <v>7</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="H1"/>
       <c r="I1"/>
@@ -523,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -549,13 +550,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="8">
         <v>5</v>
@@ -581,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -610,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
@@ -639,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>

--- a/autoSave NPCs-ITEMs/QuestsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/QuestsAo-Web.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -70,13 +70,25 @@
   </si>
   <si>
     <t>npcKillAmountNeeded</t>
+  </si>
+  <si>
+    <t>userKillAmountNeeded</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>giveDiamonds</t>
+  </si>
+  <si>
+    <t>Asesina 5 usuarios y obtendras hasta 5 diamantes y 200000 de oro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +111,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9876AA"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -148,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,6 +196,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,31 +484,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="101.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="85.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -504,19 +525,24 @@
         <v>16</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1"/>
-      <c r="I1"/>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -533,19 +559,24 @@
         <v>5</v>
       </c>
       <c r="F2" s="8">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8">
         <v>500</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="H2" s="8">
+        <v>500</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -562,19 +593,24 @@
         <v>5</v>
       </c>
       <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
         <v>1500</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>2500</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -591,19 +627,24 @@
         <v>5</v>
       </c>
       <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
         <v>3500</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>5000</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -620,19 +661,24 @@
         <v>5</v>
       </c>
       <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
         <v>5000</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>10000</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -649,34 +695,58 @@
         <v>5</v>
       </c>
       <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
         <v>8500</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="8">
         <v>20000</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>200000</v>
+      </c>
+      <c r="I7" s="8">
+        <v>5</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -690,14 +760,15 @@
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" s="10"/>
-      <c r="E9"/>
-      <c r="F9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -705,8 +776,9 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -720,8 +792,9 @@
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -735,8 +808,9 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -750,8 +824,9 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -765,8 +840,9 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -780,8 +856,9 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -795,8 +872,9 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -810,8 +888,9 @@
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -825,8 +904,9 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -840,8 +920,9 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -855,8 +936,9 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -870,8 +952,9 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -885,8 +968,9 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -900,8 +984,9 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -915,8 +1000,9 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -930,8 +1016,9 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -945,8 +1032,9 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -960,8 +1048,9 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -975,8 +1064,9 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -990,8 +1080,9 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1005,8 +1096,9 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1020,8 +1112,9 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1035,6 +1128,7 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
+      <c r="N31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/autoSave NPCs-ITEMs/QuestsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/QuestsAo-Web.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -27,18 +27,9 @@
     <t>#</t>
   </si>
   <si>
-    <t>Murcielago</t>
-  </si>
-  <si>
-    <t>Serpiente</t>
-  </si>
-  <si>
     <t>Goblin</t>
   </si>
   <si>
-    <t>Lobo</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -51,44 +42,77 @@
     <t>giveGold</t>
   </si>
   <si>
-    <t>Asesina 5 murcielagos y obtendras 500 de experiencia y 500 de oro</t>
-  </si>
-  <si>
-    <t>Asesina 5 serpientes y obtendras 3500 de experiencia y 5000 de oro</t>
-  </si>
-  <si>
-    <t>Asesina 5 goblins y obtendras 5000 de experiencia y 10000 de oro</t>
-  </si>
-  <si>
-    <t>Asesina 5 lobos y obtendras 8500 de experiencia y 20000 de oro</t>
-  </si>
-  <si>
-    <t>Asesina 5 gallos y obtendras 1500 de experiencia y 2500 de oro</t>
-  </si>
-  <si>
-    <t>Gallo Salvaje</t>
-  </si>
-  <si>
     <t>npcKillAmountNeeded</t>
   </si>
   <si>
     <t>userKillAmountNeeded</t>
   </si>
   <si>
-    <t>Player</t>
-  </si>
-  <si>
     <t>giveDiamonds</t>
   </si>
   <si>
-    <t>Asesina 5 usuarios y obtendras hasta 5 diamantes y 200000 de oro</t>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie King</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Giant Spider</t>
+  </si>
+  <si>
+    <t>Outlaw</t>
+  </si>
+  <si>
+    <t>Orc King</t>
+  </si>
+  <si>
+    <t>Assassinate Goblin 5. Reward: 500 XP and 500 gold</t>
+  </si>
+  <si>
+    <t>Assassinate Wolf 5. Reward: 500 XP and 500 gold</t>
+  </si>
+  <si>
+    <t>Assassinate Skeleton 5. Reward: 500 XP and 500 gold</t>
+  </si>
+  <si>
+    <t>Assassinate Zombie 5. Reward: 500 XP and 500 gold</t>
+  </si>
+  <si>
+    <t>Assassinate Zombie King 5. Reward: 500 XP and 500 gold</t>
+  </si>
+  <si>
+    <t>Assassinate Orc 5. Reward: 500 XP and 500 gold</t>
+  </si>
+  <si>
+    <t>Assassinate Giant Spider 5. Reward: 500 XP and 500 gold</t>
+  </si>
+  <si>
+    <t>Assassinate Outlaw 5. Reward: 500 XP and 500 gold</t>
+  </si>
+  <si>
+    <t>Assassinate Orc King 5. Reward: 500 XP and 500 gold</t>
+  </si>
+  <si>
+    <t>Assassinate Bat 3. Reward: 500 XP and 500 gold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,20 +127,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF9876AA"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -166,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,10 +204,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,7 +493,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -516,25 +522,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J1"/>
       <c r="K1"/>
@@ -547,25 +553,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="8">
         <v>0</v>
       </c>
       <c r="G2" s="8">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="H2" s="8">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="I2" s="8">
         <v>0</v>
@@ -580,14 +586,14 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="8">
         <v>5</v>
@@ -596,10 +602,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="8">
-        <v>1500</v>
+        <f>G2*2</f>
+        <v>40</v>
       </c>
       <c r="H3" s="8">
-        <v>2500</v>
+        <f>H2*2</f>
+        <v>100</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
@@ -614,26 +622,28 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="E4" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <v>3500</v>
+        <f>G3*2</f>
+        <v>80</v>
       </c>
       <c r="H4" s="8">
-        <v>5000</v>
+        <f>H3*2</f>
+        <v>200</v>
       </c>
       <c r="I4" s="8">
         <v>0</v>
@@ -649,25 +659,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="E5" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="8">
-        <v>5000</v>
+        <f t="shared" ref="G5:G11" si="0">G4*2</f>
+        <v>160</v>
       </c>
       <c r="H5" s="8">
-        <v>10000</v>
+        <f t="shared" ref="H5:H11" si="1">H4*2</f>
+        <v>400</v>
       </c>
       <c r="I5" s="8">
         <v>0</v>
@@ -683,25 +695,27 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E6" s="8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>8500</v>
+        <f t="shared" si="0"/>
+        <v>320</v>
       </c>
       <c r="H6" s="8">
-        <v>20000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
@@ -717,28 +731,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F7" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>640</v>
       </c>
       <c r="H7" s="8">
-        <v>200000</v>
+        <f t="shared" si="1"/>
+        <v>1600</v>
       </c>
       <c r="I7" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -747,15 +763,35 @@
       <c r="N7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="1"/>
+        <v>3200</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -763,15 +799,35 @@
       <c r="N8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="1"/>
+        <v>6400</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -779,15 +835,35 @@
       <c r="N9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>5120</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>12800</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -795,15 +871,35 @@
       <c r="N10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8">
+        <v>25</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>10240</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="1"/>
+        <v>25600</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>

--- a/autoSave NPCs-ITEMs/QuestsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/QuestsAo-Web.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Goblin</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>nameNpcKill</t>
   </si>
   <si>
@@ -78,34 +75,13 @@
     <t>Orc King</t>
   </si>
   <si>
-    <t>Assassinate Goblin 5. Reward: 500 XP and 500 gold</t>
-  </si>
-  <si>
-    <t>Assassinate Wolf 5. Reward: 500 XP and 500 gold</t>
-  </si>
-  <si>
-    <t>Assassinate Skeleton 5. Reward: 500 XP and 500 gold</t>
-  </si>
-  <si>
-    <t>Assassinate Zombie 5. Reward: 500 XP and 500 gold</t>
-  </si>
-  <si>
-    <t>Assassinate Zombie King 5. Reward: 500 XP and 500 gold</t>
-  </si>
-  <si>
-    <t>Assassinate Orc 5. Reward: 500 XP and 500 gold</t>
-  </si>
-  <si>
-    <t>Assassinate Giant Spider 5. Reward: 500 XP and 500 gold</t>
-  </si>
-  <si>
-    <t>Assassinate Outlaw 5. Reward: 500 XP and 500 gold</t>
-  </si>
-  <si>
-    <t>Assassinate Orc King 5. Reward: 500 XP and 500 gold</t>
-  </si>
-  <si>
-    <t>Assassinate Bat 3. Reward: 500 XP and 500 gold</t>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Player2</t>
+  </si>
+  <si>
+    <t>Player3</t>
   </si>
 </sst>
 </file>
@@ -176,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,9 +161,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -490,471 +463,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="N1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
         <v>20</v>
       </c>
-      <c r="H2" s="8">
+      <c r="G2" s="7">
         <v>50</v>
       </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="D3" s="7">
         <v>5</v>
       </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <f>F2*2</f>
+        <v>40</v>
+      </c>
+      <c r="G3" s="7">
         <f>G2*2</f>
-        <v>40</v>
-      </c>
-      <c r="H3" s="8">
-        <f>H2*2</f>
         <v>100</v>
       </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f>F3*2</f>
+        <v>80</v>
+      </c>
+      <c r="G4" s="7">
         <f>G3*2</f>
-        <v>80</v>
-      </c>
-      <c r="H4" s="8">
-        <f>H3*2</f>
         <v>200</v>
       </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
         <v>10</v>
       </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" ref="G5:G11" si="0">G4*2</f>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F11" si="0">F4*2</f>
         <v>160</v>
       </c>
-      <c r="H5" s="8">
-        <f t="shared" ref="H5:H11" si="1">H4*2</f>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G11" si="1">G4*2</f>
         <v>400</v>
       </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8">
         <v>12</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="H6" s="8">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="8">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
-      <c r="H7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7">
         <v>16</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>1280</v>
       </c>
-      <c r="H8" s="8">
+      <c r="G8" s="7">
         <f t="shared" si="1"/>
         <v>3200</v>
       </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-      <c r="N8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7">
         <v>18</v>
       </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-      <c r="H9" s="8">
+      <c r="G9" s="7">
         <f t="shared" si="1"/>
         <v>6400</v>
       </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-      <c r="N9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7">
         <v>20</v>
       </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>5120</v>
       </c>
-      <c r="H10" s="8">
+      <c r="G10" s="7">
         <f t="shared" si="1"/>
         <v>12800</v>
       </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7">
         <v>25</v>
       </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>10240</v>
       </c>
-      <c r="H11" s="8">
+      <c r="G11" s="7">
         <f t="shared" si="1"/>
         <v>25600</v>
       </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>15000</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>40000</v>
+      </c>
+      <c r="H13" s="7">
+        <v>25</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H14" s="7">
+        <v>100</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -968,9 +952,8 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -984,9 +967,8 @@
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-      <c r="N16"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1000,9 +982,8 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1016,9 +997,8 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1032,9 +1012,8 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1048,9 +1027,8 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="N20"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1064,9 +1042,8 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="N21"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1080,9 +1057,8 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1096,9 +1072,8 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1112,9 +1087,8 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1128,9 +1102,8 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-      <c r="N25"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1144,9 +1117,8 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="N26"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1160,9 +1132,8 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-      <c r="N27"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1176,9 +1147,8 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="N28"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1192,9 +1162,8 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-      <c r="N29"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1208,9 +1177,8 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-      <c r="N30"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1224,7 +1192,6 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-      <c r="N31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
